--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2244.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2244.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.244036586593263</v>
+        <v>1.116994380950928</v>
       </c>
       <c r="B1">
-        <v>2.458794813648756</v>
+        <v>2.503241300582886</v>
       </c>
       <c r="C1">
-        <v>7.791223840682841</v>
+        <v>6.166455745697021</v>
       </c>
       <c r="D1">
-        <v>2.276223595829792</v>
+        <v>2.173532485961914</v>
       </c>
       <c r="E1">
-        <v>1.139219792424318</v>
+        <v>1.252100229263306</v>
       </c>
     </row>
   </sheetData>
